--- a/TFI 2017/Baubeta, Daniel - TFI.xlsx
+++ b/TFI 2017/Baubeta, Daniel - TFI.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="13" r:id="rId1"/>
+    <sheet name="CASH FLOW" sheetId="13" r:id="rId1"/>
     <sheet name="HIPOTESIS" sheetId="2" r:id="rId2"/>
     <sheet name="MODELO DE INGRESOS" sheetId="5" r:id="rId3"/>
     <sheet name="PROYECCION DE VENTAS" sheetId="4" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="280">
   <si>
     <t>Total</t>
   </si>
@@ -859,6 +859,21 @@
   <si>
     <t>VENTA DE ACTIVOS</t>
   </si>
+  <si>
+    <t>Costos programador(es)</t>
+  </si>
+  <si>
+    <t>Costos Analista</t>
+  </si>
+  <si>
+    <t>Costo de la solucion</t>
+  </si>
+  <si>
+    <t>Costo Variable unitario</t>
+  </si>
+  <si>
+    <t>Costo variable total</t>
+  </si>
 </sst>
 </file>
 
@@ -1638,78 +1653,6 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1753,6 +1696,78 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -3396,11 +3411,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2060532576"/>
-        <c:axId val="2060533120"/>
+        <c:axId val="-132231024"/>
+        <c:axId val="-132229392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2060532576"/>
+        <c:axId val="-132231024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060533120"/>
+        <c:crossAx val="-132229392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3451,7 +3466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2060533120"/>
+        <c:axId val="-132229392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-2"/>
@@ -3487,7 +3502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060532576"/>
+        <c:crossAx val="-132231024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3664,7 +3679,7 @@
                   <c:v>1570</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7640.6947826086962</c:v>
+                  <c:v>6449.2417582417584</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9000</c:v>
@@ -3688,7 +3703,7 @@
                   <c:v>2355000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11461042.173913045</c:v>
+                  <c:v>9673862.6373626366</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13500000</c:v>
@@ -3752,7 +3767,7 @@
                   <c:v>1570</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7640.6947826086962</c:v>
+                  <c:v>6449.2417582417584</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9000</c:v>
@@ -3770,19 +3785,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10544158.800000001</c:v>
+                  <c:v>5868810</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10544158.800000001</c:v>
+                  <c:v>5868810</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10544158.800000001</c:v>
+                  <c:v>5868810</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10544158.800000001</c:v>
+                  <c:v>5868810</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10544158.800000001</c:v>
+                  <c:v>5868810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3840,7 +3855,7 @@
                   <c:v>1570</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7640.6947826086962</c:v>
+                  <c:v>6449.2417582417584</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9000</c:v>
@@ -3861,16 +3876,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188400</c:v>
+                  <c:v>926300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>916883.37391304353</c:v>
+                  <c:v>3805052.6373626376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1080000</c:v>
+                  <c:v>5310000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1267440</c:v>
+                  <c:v>6231580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3928,7 +3943,7 @@
                   <c:v>1570</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7640.6947826086962</c:v>
+                  <c:v>6449.2417582417584</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9000</c:v>
@@ -3946,19 +3961,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10544158.800000001</c:v>
+                  <c:v>5868810</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10732558.800000001</c:v>
+                  <c:v>6795110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11461042.173913045</c:v>
+                  <c:v>9673862.6373626366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11624158.800000001</c:v>
+                  <c:v>11178810</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11811598.800000001</c:v>
+                  <c:v>12100390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,11 +3988,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2060535296"/>
-        <c:axId val="2060536384"/>
+        <c:axId val="-132233200"/>
+        <c:axId val="-132231568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2060535296"/>
+        <c:axId val="-132233200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,12 +4105,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060536384"/>
+        <c:crossAx val="-132231568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2060536384"/>
+        <c:axId val="-132231568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060535296"/>
+        <c:crossAx val="-132233200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5319,7 +5334,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5332,13 +5347,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="70"/>
@@ -5363,13 +5378,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="33" t="s">
@@ -5415,17 +5430,17 @@
       </c>
       <c r="I6" s="88">
         <f>(F6-F8)/B20*100*-1</f>
-        <v>1179.0608096785841</v>
+        <v>1057.4475306970021</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="33" t="s">
@@ -5433,20 +5448,20 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
-        <f>'COSTOS VARIABLES'!Y13*-1</f>
-        <v>-188093.75</v>
+        <f>'COSTOS VARIABLES'!Y15*-1</f>
+        <v>-1405793.75</v>
       </c>
       <c r="D8" s="12">
-        <f>'COSTOS VARIABLES'!Y27*-1</f>
-        <v>-384025</v>
+        <f>'COSTOS VARIABLES'!Y31*-1</f>
+        <v>-2265540.625</v>
       </c>
       <c r="E8" s="12">
-        <f>'COSTOS VARIABLES'!Y41*-1</f>
-        <v>-530230</v>
+        <f>'COSTOS VARIABLES'!Y47*-1</f>
+        <v>-2407825</v>
       </c>
       <c r="F8" s="88">
         <f>SUM(C8:E9,C15:E15)*-1+B20*-1</f>
-        <v>12552180.618000001</v>
+        <v>12888927.787500001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5456,21 +5471,21 @@
       <c r="B9" s="12"/>
       <c r="C9" s="12">
         <f>('COSTOS FIJOS'!$N$25*-1)+('COSTOS RRHH'!C31*-1)</f>
-        <v>-2522070</v>
+        <v>-1857870</v>
       </c>
       <c r="D9" s="12">
         <f>('COSTOS FIJOS'!$N$25*-1*$H$9)+('COSTOS RRHH'!E31*-1)</f>
-        <v>-3646404</v>
+        <v>-2005470</v>
       </c>
       <c r="E9" s="12">
         <f>('COSTOS FIJOS'!$N$25*-1*$H$9*$H$9)+('COSTOS RRHH'!G31*-1)</f>
-        <v>-4375684.8</v>
+        <v>-2005470</v>
       </c>
       <c r="G9" t="s">
         <v>209</v>
       </c>
       <c r="H9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5498,15 +5513,15 @@
       <c r="B11" s="37"/>
       <c r="C11" s="85">
         <f>SUM(C8:C10)</f>
-        <v>-2732373.75</v>
+        <v>-3285873.75</v>
       </c>
       <c r="D11" s="85">
         <f>SUM(D8:D10)</f>
-        <v>-4052639</v>
+        <v>-4293220.625</v>
       </c>
       <c r="E11" s="85">
         <f>SUM(E8:E10)</f>
-        <v>-4928124.8</v>
+        <v>-4435505</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickTop="1">
@@ -5523,15 +5538,15 @@
       <c r="B13" s="37"/>
       <c r="C13" s="85">
         <f>+C6+C11</f>
-        <v>-387373.75</v>
+        <v>-940873.75</v>
       </c>
       <c r="D13" s="85">
         <f>+D6+D11</f>
-        <v>1387361</v>
+        <v>1146779.375</v>
       </c>
       <c r="E13" s="85">
         <f>+E6+E11</f>
-        <v>3103875.2</v>
+        <v>3596495</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickTop="1">
@@ -5554,11 +5569,11 @@
       </c>
       <c r="D15" s="85">
         <f>IF(D13&lt;0,0,-D13*$B$15)</f>
-        <v>-194230.54</v>
+        <v>-160549.11250000002</v>
       </c>
       <c r="E15" s="85">
         <f>IF(E13&lt;0,0,-E13*$B$15)</f>
-        <v>-434542.52800000005</v>
+        <v>-503509.30000000005</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickTop="1">
@@ -5575,15 +5590,15 @@
       <c r="B17" s="37"/>
       <c r="C17" s="85">
         <f>C15+C13</f>
-        <v>-387373.75</v>
+        <v>-940873.75</v>
       </c>
       <c r="D17" s="85">
         <f>D15+D13</f>
-        <v>1193130.46</v>
+        <v>986230.26249999995</v>
       </c>
       <c r="E17" s="85">
         <f>E15+E13</f>
-        <v>2669332.6720000003</v>
+        <v>3092985.7</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickTop="1">
@@ -5621,15 +5636,15 @@
       </c>
       <c r="C20" s="85">
         <f>SUM(C17:C19)</f>
-        <v>-365163.75</v>
+        <v>-918663.75</v>
       </c>
       <c r="D20" s="85">
         <f>SUM(D17:D19)</f>
-        <v>1215340.46</v>
+        <v>1008440.2625</v>
       </c>
       <c r="E20" s="85">
         <f>SUM(E17:E19)</f>
-        <v>2691542.6720000003</v>
+        <v>3115195.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickTop="1">
@@ -5656,7 +5671,7 @@
       </c>
       <c r="B23" s="12">
         <f>NPV(B22,C20,D20,E20)+B20</f>
-        <v>1746455.4926831706</v>
+        <v>1386945.8801600705</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -5668,7 +5683,7 @@
       </c>
       <c r="B24" s="93">
         <f>IRR(B20:E20,30)</f>
-        <v>1.337628542253503</v>
+        <v>0.86582828197964901</v>
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="76"/>
@@ -5693,11 +5708,11 @@
       </c>
       <c r="F32" s="87">
         <f>C20</f>
-        <v>-365163.75</v>
+        <v>-918663.75</v>
       </c>
       <c r="G32">
         <f>F32/(1+0.215)^E32</f>
-        <v>-300546.29629629629</v>
+        <v>-756101.8518518518</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -5706,11 +5721,11 @@
       </c>
       <c r="F33" s="87">
         <f>D20</f>
-        <v>1215340.46</v>
+        <v>1008440.2625</v>
       </c>
       <c r="G33">
         <f>F33/(1+0.215)^E33</f>
-        <v>823275.89628952218</v>
+        <v>683120.97579975938</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -5719,11 +5734,11 @@
       </c>
       <c r="F34" s="87">
         <f>E20</f>
-        <v>2691542.6720000003</v>
+        <v>3115195.7</v>
       </c>
       <c r="G34">
         <f>F34/(1+0.215)^E34</f>
-        <v>1500625.8926899449</v>
+        <v>1736826.7562121628</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -5732,7 +5747,7 @@
       </c>
       <c r="G35">
         <f>SUM(G31:G34)</f>
-        <v>1746455.4926831708</v>
+        <v>1386945.8801600705</v>
       </c>
     </row>
   </sheetData>
@@ -5753,8 +5768,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5767,13 +5782,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -5953,7 +5968,7 @@
       <c r="E15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="134"/>
+      <c r="F15" s="110"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickTop="1">
       <c r="A16" s="14" t="s">
@@ -5972,7 +5987,7 @@
       <c r="E16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="134"/>
+      <c r="F16" s="110"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
@@ -5991,7 +6006,7 @@
       <c r="E17" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="134"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
@@ -6027,11 +6042,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="36">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="84" t="s">
@@ -6062,7 +6077,7 @@
         <f>D26</f>
         <v>4200</v>
       </c>
-      <c r="D26" s="134">
+      <c r="D26" s="110">
         <f>D7-AMORTIZACIONES!C5-AMORTIZACIONES!D5-AMORTIZACIONES!E5</f>
         <v>4200</v>
       </c>
@@ -6078,7 +6093,7 @@
         <f>D27</f>
         <v>4900</v>
       </c>
-      <c r="D27" s="134">
+      <c r="D27" s="110">
         <f>D8-AMORTIZACIONES!C6-AMORTIZACIONES!D6-AMORTIZACIONES!E6</f>
         <v>4900</v>
       </c>
@@ -6094,7 +6109,7 @@
         <f>D28</f>
         <v>3150</v>
       </c>
-      <c r="D28" s="134">
+      <c r="D28" s="110">
         <f>D9-AMORTIZACIONES!C7-AMORTIZACIONES!D7-AMORTIZACIONES!E7</f>
         <v>3150</v>
       </c>
@@ -6110,7 +6125,7 @@
         <f>D29</f>
         <v>9940</v>
       </c>
-      <c r="D29" s="134">
+      <c r="D29" s="110">
         <f>D10-AMORTIZACIONES!C8-AMORTIZACIONES!D8-AMORTIZACIONES!E8</f>
         <v>9940</v>
       </c>
@@ -6133,7 +6148,7 @@
         <f>D31</f>
         <v>21840</v>
       </c>
-      <c r="D31" s="134">
+      <c r="D31" s="110">
         <f>D12-AMORTIZACIONES!C10-AMORTIZACIONES!D10-AMORTIZACIONES!E10</f>
         <v>21840</v>
       </c>
@@ -6149,7 +6164,7 @@
         <f>D32</f>
         <v>10000</v>
       </c>
-      <c r="D32" s="134">
+      <c r="D32" s="110">
         <f>D13-AMORTIZACIONES!C11-AMORTIZACIONES!D11-AMORTIZACIONES!E11</f>
         <v>10000</v>
       </c>
@@ -6165,7 +6180,7 @@
         <f>D33</f>
         <v>760</v>
       </c>
-      <c r="D33" s="134">
+      <c r="D33" s="110">
         <f>D14-AMORTIZACIONES!C12-AMORTIZACIONES!D12-AMORTIZACIONES!E12</f>
         <v>760</v>
       </c>
@@ -6194,7 +6209,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6205,13 +6220,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
@@ -6494,7 +6509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -6509,14 +6524,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
@@ -6543,14 +6558,14 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="21">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="42" t="s">
@@ -6605,24 +6620,24 @@
       <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:6" ht="21">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
     </row>
     <row r="12" spans="1:6" ht="99" customHeight="1">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
@@ -6633,10 +6648,10 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="45">
         <v>4860000000000</v>
       </c>
@@ -6645,10 +6660,10 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="45">
         <f>C14*0.046</f>
         <v>223560000000</v>
@@ -6658,10 +6673,10 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="45">
         <f>C15*0.75</f>
         <v>167670000000</v>
@@ -6671,10 +6686,10 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="103"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="45">
         <f>C16*0.013</f>
         <v>2179710000</v>
@@ -6684,10 +6699,10 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="45">
         <f>C17*0.05</f>
         <v>108985500</v>
@@ -6713,14 +6728,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="21">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
@@ -8013,7 +8028,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8029,15 +8044,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -8083,15 +8098,15 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="21">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -8112,18 +8127,18 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="31"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="104" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -8411,15 +8426,15 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="21">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -8588,8 +8603,8 @@
   </sheetPr>
   <dimension ref="A1:AB175"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8623,19 +8638,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -8841,15 +8856,15 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" ht="21">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -8903,10 +8918,10 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="107"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
@@ -8937,10 +8952,10 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="19">
         <v>400</v>
       </c>
@@ -8971,10 +8986,10 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="19">
         <f>C11*0.2</f>
         <v>80</v>
@@ -9098,15 +9113,15 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="21">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -9160,10 +9175,10 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
@@ -9194,10 +9209,10 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="109"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="19">
         <v>3</v>
       </c>
@@ -9228,10 +9243,10 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="109"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="19">
         <v>3</v>
       </c>
@@ -9262,10 +9277,10 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="109"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="19">
         <v>30</v>
       </c>
@@ -9326,15 +9341,15 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="21">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -9484,15 +9499,15 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="21">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -9736,11 +9751,11 @@
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="21">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -9798,10 +9813,10 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="107"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="15" t="s">
         <v>5</v>
       </c>
@@ -9832,10 +9847,10 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="111"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="17">
         <v>60000</v>
       </c>
@@ -9866,10 +9881,10 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="109"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="18">
         <v>1500</v>
       </c>
@@ -9900,10 +9915,10 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="16">
         <v>35000</v>
       </c>
@@ -9934,10 +9949,10 @@
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="109"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="18">
         <v>1500</v>
       </c>
@@ -9968,10 +9983,10 @@
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="16">
         <v>50000</v>
       </c>
@@ -10002,10 +10017,10 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="109"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="18">
         <v>1500</v>
       </c>
@@ -10096,13 +10111,13 @@
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="1:28" ht="21">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -10159,54 +10174,54 @@
     </row>
     <row r="49" spans="1:28" ht="17.25" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="112" t="s">
+      <c r="C49" s="124"/>
+      <c r="D49" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="112" t="s">
+      <c r="E49" s="124"/>
+      <c r="F49" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="113"/>
-      <c r="H49" s="112" t="s">
+      <c r="G49" s="124"/>
+      <c r="H49" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="113"/>
-      <c r="J49" s="112" t="s">
+      <c r="I49" s="124"/>
+      <c r="J49" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="113"/>
-      <c r="L49" s="112" t="s">
+      <c r="K49" s="124"/>
+      <c r="L49" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="113"/>
-      <c r="N49" s="112" t="s">
+      <c r="M49" s="124"/>
+      <c r="N49" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="113"/>
-      <c r="P49" s="112" t="s">
+      <c r="O49" s="124"/>
+      <c r="P49" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="112" t="s">
+      <c r="Q49" s="124"/>
+      <c r="R49" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="S49" s="113"/>
-      <c r="T49" s="112" t="s">
+      <c r="S49" s="124"/>
+      <c r="T49" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="U49" s="113"/>
-      <c r="V49" s="112" t="s">
+      <c r="U49" s="124"/>
+      <c r="V49" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="W49" s="113"/>
-      <c r="X49" s="112" t="s">
+      <c r="W49" s="124"/>
+      <c r="X49" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Y49" s="114"/>
+      <c r="Y49" s="125"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
@@ -11094,13 +11109,13 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:28" ht="21">
-      <c r="A61" s="101" t="s">
+      <c r="A61" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -11157,54 +11172,54 @@
     </row>
     <row r="63" spans="1:28" ht="17.25" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="112" t="s">
+      <c r="B63" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="112" t="s">
+      <c r="C63" s="124"/>
+      <c r="D63" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="113"/>
-      <c r="F63" s="112" t="s">
+      <c r="E63" s="124"/>
+      <c r="F63" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="113"/>
-      <c r="H63" s="112" t="s">
+      <c r="G63" s="124"/>
+      <c r="H63" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="113"/>
-      <c r="J63" s="112" t="s">
+      <c r="I63" s="124"/>
+      <c r="J63" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="113"/>
-      <c r="L63" s="112" t="s">
+      <c r="K63" s="124"/>
+      <c r="L63" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M63" s="113"/>
-      <c r="N63" s="112" t="s">
+      <c r="M63" s="124"/>
+      <c r="N63" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="O63" s="113"/>
-      <c r="P63" s="112" t="s">
+      <c r="O63" s="124"/>
+      <c r="P63" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q63" s="113"/>
-      <c r="R63" s="112" t="s">
+      <c r="Q63" s="124"/>
+      <c r="R63" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="S63" s="113"/>
-      <c r="T63" s="112" t="s">
+      <c r="S63" s="124"/>
+      <c r="T63" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="U63" s="113"/>
-      <c r="V63" s="112" t="s">
+      <c r="U63" s="124"/>
+      <c r="V63" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="W63" s="113"/>
-      <c r="X63" s="112" t="s">
+      <c r="W63" s="124"/>
+      <c r="X63" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Y63" s="114"/>
+      <c r="Y63" s="125"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
@@ -12104,13 +12119,13 @@
       <c r="AB74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="21">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="101"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -12167,54 +12182,54 @@
     </row>
     <row r="77" spans="1:28" ht="17.25" customHeight="1">
       <c r="A77" s="4"/>
-      <c r="B77" s="112" t="s">
+      <c r="B77" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="113"/>
-      <c r="D77" s="112" t="s">
+      <c r="C77" s="124"/>
+      <c r="D77" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="113"/>
-      <c r="F77" s="112" t="s">
+      <c r="E77" s="124"/>
+      <c r="F77" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="113"/>
-      <c r="H77" s="112" t="s">
+      <c r="G77" s="124"/>
+      <c r="H77" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="113"/>
-      <c r="J77" s="112" t="s">
+      <c r="I77" s="124"/>
+      <c r="J77" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="113"/>
-      <c r="L77" s="112" t="s">
+      <c r="K77" s="124"/>
+      <c r="L77" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M77" s="113"/>
-      <c r="N77" s="112" t="s">
+      <c r="M77" s="124"/>
+      <c r="N77" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="O77" s="113"/>
-      <c r="P77" s="112" t="s">
+      <c r="O77" s="124"/>
+      <c r="P77" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q77" s="113"/>
-      <c r="R77" s="112" t="s">
+      <c r="Q77" s="124"/>
+      <c r="R77" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="S77" s="113"/>
-      <c r="T77" s="112" t="s">
+      <c r="S77" s="124"/>
+      <c r="T77" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="U77" s="113"/>
-      <c r="V77" s="112" t="s">
+      <c r="U77" s="124"/>
+      <c r="V77" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="W77" s="113"/>
-      <c r="X77" s="112" t="s">
+      <c r="W77" s="124"/>
+      <c r="X77" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Y77" s="114"/>
+      <c r="Y77" s="125"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
@@ -15725,17 +15740,38 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="J77:K77"/>
@@ -15752,38 +15788,17 @@
     <mergeCell ref="X77:Y77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.9055118110236221" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15803,7 +15818,7 @@
   </sheetPr>
   <dimension ref="A1:AP175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="T59" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="AF64" sqref="AF64"/>
     </sheetView>
   </sheetViews>
@@ -15835,22 +15850,23 @@
     <col min="24" max="24" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -16056,15 +16072,15 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" ht="21">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -16118,10 +16134,10 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="107"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
@@ -16152,10 +16168,10 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="19">
         <v>400</v>
       </c>
@@ -16186,10 +16202,10 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="19">
         <f>C11*0.2</f>
         <v>80</v>
@@ -16313,15 +16329,15 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="21">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -16375,10 +16391,10 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
@@ -16409,10 +16425,10 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="109"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="19">
         <v>3</v>
       </c>
@@ -16443,10 +16459,10 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="109"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="19">
         <v>3</v>
       </c>
@@ -16477,10 +16493,10 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="109"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="19">
         <v>30</v>
       </c>
@@ -16541,15 +16557,15 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="21">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -16699,15 +16715,15 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="21">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -16951,11 +16967,11 @@
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="21">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -17013,10 +17029,10 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="107"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="15" t="s">
         <v>5</v>
       </c>
@@ -17047,10 +17063,10 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="111"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="17">
         <v>60000</v>
       </c>
@@ -17081,10 +17097,10 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="109"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="18">
         <v>1500</v>
       </c>
@@ -17115,10 +17131,10 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="16">
         <v>35000</v>
       </c>
@@ -17149,10 +17165,10 @@
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="109"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="18">
         <v>1500</v>
       </c>
@@ -17183,10 +17199,10 @@
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="16">
         <v>50000</v>
       </c>
@@ -17217,10 +17233,10 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="109"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="18">
         <v>1500</v>
       </c>
@@ -17311,13 +17327,13 @@
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="1:28" ht="21">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -17374,54 +17390,54 @@
     </row>
     <row r="49" spans="1:42" ht="17.25" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="112" t="s">
+      <c r="C49" s="124"/>
+      <c r="D49" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="112" t="s">
+      <c r="E49" s="124"/>
+      <c r="F49" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="113"/>
-      <c r="H49" s="112" t="s">
+      <c r="G49" s="124"/>
+      <c r="H49" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="113"/>
-      <c r="J49" s="112" t="s">
+      <c r="I49" s="124"/>
+      <c r="J49" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="113"/>
-      <c r="L49" s="112" t="s">
+      <c r="K49" s="124"/>
+      <c r="L49" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="113"/>
-      <c r="N49" s="112" t="s">
+      <c r="M49" s="124"/>
+      <c r="N49" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="113"/>
-      <c r="P49" s="112" t="s">
+      <c r="O49" s="124"/>
+      <c r="P49" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="112" t="s">
+      <c r="Q49" s="124"/>
+      <c r="R49" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="S49" s="113"/>
-      <c r="T49" s="112" t="s">
+      <c r="S49" s="124"/>
+      <c r="T49" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="U49" s="113"/>
-      <c r="V49" s="112" t="s">
+      <c r="U49" s="124"/>
+      <c r="V49" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="W49" s="113"/>
-      <c r="X49" s="112" t="s">
+      <c r="W49" s="124"/>
+      <c r="X49" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Y49" s="114"/>
+      <c r="Y49" s="125"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
@@ -17541,11 +17557,11 @@
       </c>
       <c r="AM50">
         <f>$AE$63</f>
-        <v>10544158.800000001</v>
+        <v>5868810</v>
       </c>
       <c r="AN50">
         <f>$AE$55</f>
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="AO50">
         <f>AK50*AN50</f>
@@ -17553,7 +17569,7 @@
       </c>
       <c r="AP50">
         <f>AO50+AM50</f>
-        <v>10544158.800000001</v>
+        <v>5868810</v>
       </c>
     </row>
     <row r="51" spans="1:42" ht="15.75" thickTop="1">
@@ -17650,6 +17666,9 @@
         <f>AC51/AB51</f>
         <v>14.201855709145995</v>
       </c>
+      <c r="AE51" t="s">
+        <v>277</v>
+      </c>
       <c r="AJ51">
         <v>1500</v>
       </c>
@@ -17663,19 +17682,19 @@
       </c>
       <c r="AM51">
         <f>$AE$63</f>
-        <v>10544158.800000001</v>
+        <v>5868810</v>
       </c>
       <c r="AN51">
         <f t="shared" ref="AN51:AN54" si="2">$AE$55</f>
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="AO51">
         <f>AK51*AN51</f>
-        <v>188400</v>
+        <v>926300</v>
       </c>
       <c r="AP51">
         <f t="shared" ref="AP51:AP54" si="3">AO51+AM51</f>
-        <v>10732558.800000001</v>
+        <v>6795110</v>
       </c>
     </row>
     <row r="52" spans="1:42" ht="15.75" thickBot="1">
@@ -17787,27 +17806,27 @@
       </c>
       <c r="AK52">
         <f>AF64</f>
-        <v>7640.6947826086962</v>
+        <v>6449.2417582417584</v>
       </c>
       <c r="AL52">
         <f t="shared" si="1"/>
-        <v>11461042.173913045</v>
+        <v>9673862.6373626366</v>
       </c>
       <c r="AM52">
         <f>$AE$63</f>
-        <v>10544158.800000001</v>
+        <v>5868810</v>
       </c>
       <c r="AN52">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="AO52">
         <f>AK52*AN52</f>
-        <v>916883.37391304353</v>
+        <v>3805052.6373626376</v>
       </c>
       <c r="AP52">
         <f t="shared" si="3"/>
-        <v>11461042.173913045</v>
+        <v>9673862.6373626366</v>
       </c>
     </row>
     <row r="53" spans="1:42" ht="15.75" thickTop="1">
@@ -17906,19 +17925,19 @@
       </c>
       <c r="AM53">
         <f>$AE$63</f>
-        <v>10544158.800000001</v>
+        <v>5868810</v>
       </c>
       <c r="AN53">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="AO53">
         <f>AK53*AN53</f>
-        <v>1080000</v>
+        <v>5310000</v>
       </c>
       <c r="AP53">
         <f t="shared" si="3"/>
-        <v>11624158.800000001</v>
+        <v>11178810</v>
       </c>
     </row>
     <row r="54" spans="1:42" ht="15.75" thickBot="1">
@@ -18026,12 +18045,15 @@
       </c>
       <c r="AB54" s="2"/>
       <c r="AC54" s="87">
-        <f>'COSTOS VARIABLES'!Y13+'COSTOS VARIABLES'!Y27+'COSTOS VARIABLES'!Y41</f>
-        <v>1102348.75</v>
+        <f>'COSTOS VARIABLES'!Y15+'COSTOS VARIABLES'!Y31+'COSTOS VARIABLES'!Y47</f>
+        <v>6079159.375</v>
       </c>
       <c r="AD54" s="88">
         <f>AC54/AB51</f>
-        <v>104.36931925771634</v>
+        <v>575.56896184434765</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>278</v>
       </c>
       <c r="AJ54">
         <v>1500</v>
@@ -18046,19 +18068,19 @@
       </c>
       <c r="AM54">
         <f>$AE$63</f>
-        <v>10544158.800000001</v>
+        <v>5868810</v>
       </c>
       <c r="AN54">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="AO54">
         <f>AK54*AN54</f>
-        <v>1267440</v>
+        <v>6231580</v>
       </c>
       <c r="AP54">
         <f t="shared" si="3"/>
-        <v>11811598.800000001</v>
+        <v>12100390</v>
       </c>
     </row>
     <row r="55" spans="1:42" ht="15.75" thickTop="1">
@@ -18147,11 +18169,13 @@
       <c r="AB55" s="2"/>
       <c r="AD55">
         <f>SUM(AD51:AD54)</f>
-        <v>118.57117496686234</v>
+        <v>589.77081755349366</v>
       </c>
       <c r="AE55">
-        <f xml:space="preserve"> 120</f>
-        <v>120</v>
+        <v>590</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:42">
@@ -18531,13 +18555,13 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:42" ht="21">
-      <c r="A61" s="101" t="s">
+      <c r="A61" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -18565,8 +18589,8 @@
         <v>231</v>
       </c>
       <c r="AE61">
-        <f xml:space="preserve"> 1-(AE55/1500)</f>
-        <v>0.92</v>
+        <f xml:space="preserve"> ROUND(1-(AE55/1500),2)</f>
+        <v>0.61</v>
       </c>
     </row>
     <row r="62" spans="1:42">
@@ -18598,57 +18622,60 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
+      <c r="AE62" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="63" spans="1:42" ht="17.25" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="112" t="s">
+      <c r="B63" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="112" t="s">
+      <c r="C63" s="124"/>
+      <c r="D63" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="113"/>
-      <c r="F63" s="112" t="s">
+      <c r="E63" s="124"/>
+      <c r="F63" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="113"/>
-      <c r="H63" s="112" t="s">
+      <c r="G63" s="124"/>
+      <c r="H63" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="113"/>
-      <c r="J63" s="112" t="s">
+      <c r="I63" s="124"/>
+      <c r="J63" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="113"/>
-      <c r="L63" s="112" t="s">
+      <c r="K63" s="124"/>
+      <c r="L63" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M63" s="113"/>
-      <c r="N63" s="112" t="s">
+      <c r="M63" s="124"/>
+      <c r="N63" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="O63" s="113"/>
-      <c r="P63" s="112" t="s">
+      <c r="O63" s="124"/>
+      <c r="P63" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q63" s="113"/>
-      <c r="R63" s="112" t="s">
+      <c r="Q63" s="124"/>
+      <c r="R63" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="S63" s="113"/>
-      <c r="T63" s="112" t="s">
+      <c r="S63" s="124"/>
+      <c r="T63" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="U63" s="113"/>
-      <c r="V63" s="112" t="s">
+      <c r="U63" s="124"/>
+      <c r="V63" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="W63" s="113"/>
-      <c r="X63" s="112" t="s">
+      <c r="W63" s="124"/>
+      <c r="X63" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Y63" s="114"/>
+      <c r="Y63" s="125"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
@@ -18656,12 +18683,12 @@
         <v>232</v>
       </c>
       <c r="AE63">
-        <f>SUM(Sheet3!C9:E9)* -1</f>
-        <v>10544158.800000001</v>
+        <f>SUM('CASH FLOW'!C9:E9)* -1</f>
+        <v>5868810</v>
       </c>
       <c r="AF63">
         <f xml:space="preserve"> AE63/AE61</f>
-        <v>11461042.173913043</v>
+        <v>9621000</v>
       </c>
     </row>
     <row r="64" spans="1:42" ht="15.75" thickBot="1">
@@ -18744,8 +18771,8 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AF64">
-        <f>AE63/(1500-120)</f>
-        <v>7640.6947826086962</v>
+        <f>AE63/(1500-AE55)</f>
+        <v>6449.2417582417584</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="15.75" thickTop="1">
@@ -19602,13 +19629,13 @@
       <c r="AB74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="21">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="101"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -19665,54 +19692,54 @@
     </row>
     <row r="77" spans="1:28" ht="17.25" customHeight="1">
       <c r="A77" s="4"/>
-      <c r="B77" s="112" t="s">
+      <c r="B77" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="113"/>
-      <c r="D77" s="112" t="s">
+      <c r="C77" s="124"/>
+      <c r="D77" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="113"/>
-      <c r="F77" s="112" t="s">
+      <c r="E77" s="124"/>
+      <c r="F77" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="113"/>
-      <c r="H77" s="112" t="s">
+      <c r="G77" s="124"/>
+      <c r="H77" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="113"/>
-      <c r="J77" s="112" t="s">
+      <c r="I77" s="124"/>
+      <c r="J77" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="113"/>
-      <c r="L77" s="112" t="s">
+      <c r="K77" s="124"/>
+      <c r="L77" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="M77" s="113"/>
-      <c r="N77" s="112" t="s">
+      <c r="M77" s="124"/>
+      <c r="N77" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="O77" s="113"/>
-      <c r="P77" s="112" t="s">
+      <c r="O77" s="124"/>
+      <c r="P77" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q77" s="113"/>
-      <c r="R77" s="112" t="s">
+      <c r="Q77" s="124"/>
+      <c r="R77" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="S77" s="113"/>
-      <c r="T77" s="112" t="s">
+      <c r="S77" s="124"/>
+      <c r="T77" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="U77" s="113"/>
-      <c r="V77" s="112" t="s">
+      <c r="U77" s="124"/>
+      <c r="V77" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="W77" s="113"/>
-      <c r="X77" s="112" t="s">
+      <c r="W77" s="124"/>
+      <c r="X77" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Y77" s="114"/>
+      <c r="Y77" s="125"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
@@ -23262,12 +23289,47 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -23280,47 +23342,12 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.9055118110236221" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -23342,7 +23369,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -23353,40 +23380,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
     </row>
     <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
@@ -24134,68 +24161,69 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y131"/>
+  <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
     <col min="23" max="23" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
@@ -24224,10 +24252,10 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="58"/>
       <c r="D3" s="15" t="s">
         <v>118</v>
@@ -24254,10 +24282,10 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="111"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="59"/>
       <c r="D4" s="65">
         <v>0.1</v>
@@ -24284,10 +24312,10 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="67"/>
       <c r="D5" s="66">
         <v>0.05</v>
@@ -24366,16 +24394,16 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="21">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
       <c r="I8" s="56"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -24582,190 +24610,356 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="E13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="F13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="G13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="H13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="I13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="J13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="K13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="L13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="M13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="N13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="O13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="P13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="Q13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="R13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="S13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="T13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="U13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="V13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="W13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="X13" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="E14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="F14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="G14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="H14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="I14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="J14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="K14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="L14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="M14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="N14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="O14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="P14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="Q14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="R14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="S14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="T14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="U14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="V14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="W14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+      <c r="X14" s="79">
+        <f>'COSTOS RRHH'!$C$26/12</f>
+        <v>30750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8">
-        <f>SUM(B11:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
-        <f>SUM(D11:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <f>SUM(F11:F12)</f>
-        <v>17200</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H11:H12)</f>
-        <v>2700</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <f>SUM(J11:J12)</f>
-        <v>19900</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8">
-        <f>SUM(L11:L12)</f>
-        <v>5400</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8">
-        <f>SUM(N11:N12)</f>
-        <v>28365.625</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8">
-        <f>SUM(P11:P12)</f>
-        <v>13865.625</v>
-      </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8">
-        <f>SUM(R11:R12)</f>
-        <v>31065.625</v>
-      </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="8">
-        <f>SUM(T11:T12)</f>
-        <v>16565.625</v>
-      </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8">
-        <f>SUM(V11:V12)</f>
-        <v>33765.625</v>
-      </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8">
-        <f>SUM(X11:X12)</f>
-        <v>19265.625</v>
-      </c>
-      <c r="Y13" s="8">
-        <f>SUM(B13:X13)</f>
-        <v>188093.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" hidden="1">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="8">
+        <f>SUM(B11:B14)</f>
+        <v>55350</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15:X15" si="0">SUM(D11:D14)</f>
+        <v>55350</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>72550</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>58050</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="0"/>
+        <v>75250</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="0"/>
+        <v>60750</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="0"/>
+        <v>83715.625</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>69215.625</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="0"/>
+        <v>86415.625</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="0"/>
+        <v>71915.625</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="0"/>
+        <v>89115.625</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="0"/>
+        <v>55350</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="0"/>
+        <v>74615.625</v>
+      </c>
+      <c r="Y15" s="8">
+        <f>SUM(B15:X15)</f>
+        <v>1405793.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" hidden="1">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7" t="e">
+      <c r="B16" s="7" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
-        <f>SUM(B13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="e">
-        <f>SUM(B14,#REF!)</f>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
+        <f>SUM(B15)</f>
+        <v>55350</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7" t="e">
+        <f>SUM(B16,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8">
-        <f>SUM(D14,D13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7" t="e">
-        <f>SUM(F14,#REF!)</f>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8">
+        <f>SUM(D16,D15)</f>
+        <v>110700</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7" t="e">
+        <f>SUM(F16,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8">
-        <f>SUM(H14,F13)</f>
-        <v>17200</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7" t="e">
-        <f>SUM(J14,#REF!)</f>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8">
+        <f>SUM(H16,F15)</f>
+        <v>183250</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7" t="e">
+        <f>SUM(J16,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8">
-        <f>SUM(L14,H13)</f>
-        <v>19900</v>
-      </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="7" t="e">
-        <f>SUM(N14,J13)</f>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8">
+        <f>SUM(L16,H15)</f>
+        <v>241300</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="7" t="e">
+        <f>SUM(N16,J15)</f>
         <v>#REF!</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="8">
-        <f>SUM(P14,L13)</f>
-        <v>25300</v>
-      </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="7" t="e">
-        <f>SUM(R14,N13)</f>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8">
+        <f>SUM(P16,L15)</f>
+        <v>302050</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="7" t="e">
+        <f>SUM(R16,N15)</f>
         <v>#REF!</v>
       </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="8">
-        <f>SUM(T14,P13)</f>
-        <v>39165.625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:25" hidden="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" hidden="1">
+      <c r="W16" s="7"/>
+      <c r="X16" s="8">
+        <f>SUM(T16,P15)</f>
+        <v>371265.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -24895,18 +25089,16 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="21">
-      <c r="A22" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="56"/>
+    <row r="22" spans="1:25" hidden="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -24923,7 +25115,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" hidden="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -24949,420 +25141,591 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:25" ht="21">
+      <c r="A24" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B26" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="63" t="s">
+      <c r="C26" s="64"/>
+      <c r="D26" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="62" t="s">
+      <c r="E26" s="64"/>
+      <c r="F26" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="63" t="s">
+      <c r="G26" s="64"/>
+      <c r="H26" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="62" t="s">
+      <c r="I26" s="64"/>
+      <c r="J26" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="63" t="s">
+      <c r="K26" s="64"/>
+      <c r="L26" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="62" t="s">
+      <c r="M26" s="64"/>
+      <c r="N26" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="O24" s="64"/>
-      <c r="P24" s="63" t="s">
+      <c r="O26" s="64"/>
+      <c r="P26" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="62" t="s">
+      <c r="Q26" s="64"/>
+      <c r="R26" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="S24" s="64"/>
-      <c r="T24" s="63" t="s">
+      <c r="S26" s="64"/>
+      <c r="T26" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="U24" s="64"/>
-      <c r="V24" s="62" t="s">
+      <c r="U26" s="64"/>
+      <c r="V26" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="W24" s="64"/>
-      <c r="X24" s="63" t="s">
+      <c r="W26" s="64"/>
+      <c r="X26" s="63" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickTop="1">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:25" ht="15.75" thickTop="1">
+      <c r="A27" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B27" s="10">
         <f>(('PROYECCION DE VENTAS'!C65+'PROYECCION DE VENTAS'!C67+'PROYECCION DE VENTAS'!C69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!C66+'PROYECCION DE VENTAS'!C68+'PROYECCION DE VENTAS'!C70)*$D$5)</f>
         <v>30700</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10">
         <f>(('PROYECCION DE VENTAS'!E65+'PROYECCION DE VENTAS'!E67+'PROYECCION DE VENTAS'!E69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!E66+'PROYECCION DE VENTAS'!E68+'PROYECCION DE VENTAS'!E70)*$D$5)</f>
         <v>16200</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
         <f>(('PROYECCION DE VENTAS'!G65+'PROYECCION DE VENTAS'!G67+'PROYECCION DE VENTAS'!G69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!G66+'PROYECCION DE VENTAS'!G68+'PROYECCION DE VENTAS'!G70)*$D$5)</f>
         <v>16200</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10">
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
         <f>(('PROYECCION DE VENTAS'!I65+'PROYECCION DE VENTAS'!I67+'PROYECCION DE VENTAS'!I69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!I66+'PROYECCION DE VENTAS'!I68+'PROYECCION DE VENTAS'!I70)*$D$5)</f>
         <v>33400</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10">
         <f>(('PROYECCION DE VENTAS'!K65+'PROYECCION DE VENTAS'!K67+'PROYECCION DE VENTAS'!K69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!K66+'PROYECCION DE VENTAS'!K68+'PROYECCION DE VENTAS'!K70)*$D$5)</f>
         <v>18900</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10">
+      <c r="K27" s="9"/>
+      <c r="L27" s="10">
         <f>(('PROYECCION DE VENTAS'!M65+'PROYECCION DE VENTAS'!M67+'PROYECCION DE VENTAS'!M69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!M66+'PROYECCION DE VENTAS'!M68+'PROYECCION DE VENTAS'!M70)*$D$5)</f>
         <v>18900</v>
       </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10">
+      <c r="M27" s="10"/>
+      <c r="N27" s="10">
         <f>(('PROYECCION DE VENTAS'!O65+'PROYECCION DE VENTAS'!O67+'PROYECCION DE VENTAS'!O69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!O66+'PROYECCION DE VENTAS'!O68+'PROYECCION DE VENTAS'!O70)*$D$5)</f>
         <v>36100</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="10">
+      <c r="O27" s="9"/>
+      <c r="P27" s="10">
         <f>(('PROYECCION DE VENTAS'!Q65+'PROYECCION DE VENTAS'!Q67+'PROYECCION DE VENTAS'!Q69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!Q66+'PROYECCION DE VENTAS'!Q68+'PROYECCION DE VENTAS'!Q70)*$D$5)</f>
         <v>21600</v>
       </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10">
         <f>(('PROYECCION DE VENTAS'!S65+'PROYECCION DE VENTAS'!S67+'PROYECCION DE VENTAS'!S69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!S66+'PROYECCION DE VENTAS'!S68+'PROYECCION DE VENTAS'!S70)*$D$5)</f>
         <v>21600</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10">
+      <c r="S27" s="9"/>
+      <c r="T27" s="10">
         <f>(('PROYECCION DE VENTAS'!U65+'PROYECCION DE VENTAS'!U67+'PROYECCION DE VENTAS'!U69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!U66+'PROYECCION DE VENTAS'!U68+'PROYECCION DE VENTAS'!U70)*$D$5)</f>
         <v>38800</v>
       </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10">
+      <c r="U27" s="10"/>
+      <c r="V27" s="10">
         <f>(('PROYECCION DE VENTAS'!W65+'PROYECCION DE VENTAS'!W67+'PROYECCION DE VENTAS'!W69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!W66+'PROYECCION DE VENTAS'!W68+'PROYECCION DE VENTAS'!W70)*$D$5)</f>
         <v>24300</v>
       </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="10">
+      <c r="W27" s="9"/>
+      <c r="X27" s="10">
         <f>(('PROYECCION DE VENTAS'!Y65+'PROYECCION DE VENTAS'!Y67+'PROYECCION DE VENTAS'!Y69)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!Y66+'PROYECCION DE VENTAS'!Y68+'PROYECCION DE VENTAS'!Y70)*$D$5)</f>
         <v>24300</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="78" t="s">
+    <row r="28" spans="1:25">
+      <c r="A28" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B28" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79">
+        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79">
+        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79">
+        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79">
+        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="K28" s="80"/>
+      <c r="L28" s="79">
+        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79">
+        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="O28" s="80"/>
+      <c r="P28" s="79">
+        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
+        <v>5765.625</v>
+      </c>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79">
         <v>6918.75</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79">
+      <c r="S28" s="80"/>
+      <c r="T28" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79">
+        <v>5765.625</v>
+      </c>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79">
+        <v>5765.625</v>
+      </c>
+      <c r="W28" s="80"/>
+      <c r="X28" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79">
-        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="79">
-        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79">
-        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="O26" s="80"/>
-      <c r="P26" s="79">
-        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79">
-        <v>6918.75</v>
-      </c>
-      <c r="S26" s="80"/>
-      <c r="T26" s="79">
-        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79">
-        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-      <c r="W26" s="80"/>
-      <c r="X26" s="79">
-        <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10</f>
-        <v>6918.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="6" t="s">
+        <v>5765.625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="C29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="D29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="E29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="F29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="G29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="H29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="I29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="J29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="K29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="L29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="M29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="N29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="O29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="P29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="Q29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="R29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="S29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="T29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="U29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="V29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="W29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="X29" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="E30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="F30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="G30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="H30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="I30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="J30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="K30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="L30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="M30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="N30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="O30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="P30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="Q30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="R30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="S30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="T30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="U30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="V30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="W30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="X30" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8">
-        <f>SUM(B25:B26)</f>
-        <v>37618.75</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8">
-        <f>SUM(D25:D26)</f>
-        <v>23118.75</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8">
-        <f>SUM(F25:F26)</f>
-        <v>23118.75</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8">
-        <f>SUM(H25:H26)</f>
-        <v>40318.75</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8">
-        <f>SUM(J25:J26)</f>
-        <v>25818.75</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8">
-        <f>SUM(L25:L26)</f>
-        <v>25818.75</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <f>SUM(N25:N26)</f>
-        <v>43018.75</v>
-      </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="8">
-        <f>SUM(P25:P26)</f>
-        <v>28518.75</v>
-      </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8">
-        <f>SUM(R25:R26)</f>
-        <v>28518.75</v>
-      </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="8">
-        <f>SUM(T25:T26)</f>
-        <v>45718.75</v>
-      </c>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8">
-        <f>SUM(V25:V26)</f>
-        <v>31218.75</v>
-      </c>
-      <c r="W27" s="7"/>
-      <c r="X27" s="8">
-        <f>SUM(X25:X26)</f>
-        <v>31218.75</v>
-      </c>
-      <c r="Y27" s="8">
-        <f>SUM(B27:X27)</f>
-        <v>384025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" hidden="1">
-      <c r="A28" s="6" t="s">
+      <c r="B31" s="8">
+        <f>SUM(B27:B30)</f>
+        <v>122565.625</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31" si="1">SUM(D27:D30)</f>
+        <v>108065.625</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ref="E31" si="2">SUM(E27:E30)</f>
+        <v>86100</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" ref="F31" si="3">SUM(F27:F30)</f>
+        <v>108065.625</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31" si="4">SUM(G27:G30)</f>
+        <v>86100</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" ref="H31" si="5">SUM(H27:H30)</f>
+        <v>125265.625</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" ref="I31" si="6">SUM(I27:I30)</f>
+        <v>86100</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" ref="J31" si="7">SUM(J27:J30)</f>
+        <v>110765.625</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" ref="K31" si="8">SUM(K27:K30)</f>
+        <v>86100</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" ref="L31" si="9">SUM(L27:L30)</f>
+        <v>110765.625</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" ref="M31" si="10">SUM(M27:M30)</f>
+        <v>86100</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" ref="N31" si="11">SUM(N27:N30)</f>
+        <v>127965.625</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" ref="O31" si="12">SUM(O27:O30)</f>
+        <v>86100</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" ref="P31" si="13">SUM(P27:P30)</f>
+        <v>113465.625</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" ref="Q31" si="14">SUM(Q27:Q30)</f>
+        <v>86100</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" ref="R31" si="15">SUM(R27:R30)</f>
+        <v>114618.75</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" ref="S31" si="16">SUM(S27:S30)</f>
+        <v>86100</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" ref="T31" si="17">SUM(T27:T30)</f>
+        <v>130665.625</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" ref="U31" si="18">SUM(U27:U30)</f>
+        <v>86100</v>
+      </c>
+      <c r="V31" s="8">
+        <f t="shared" ref="V31" si="19">SUM(V27:V30)</f>
+        <v>116165.625</v>
+      </c>
+      <c r="W31" s="8">
+        <f t="shared" ref="W31" si="20">SUM(W27:W30)</f>
+        <v>86100</v>
+      </c>
+      <c r="X31" s="8">
+        <f t="shared" ref="X31" si="21">SUM(X27:X30)</f>
+        <v>116165.625</v>
+      </c>
+      <c r="Y31" s="8">
+        <f>SUM(B31:X31)</f>
+        <v>2265540.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" hidden="1">
+      <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="7">
-        <f>SUM(B27)</f>
-        <v>37618.75</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8">
-        <f>SUM(D27)</f>
-        <v>23118.75</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7">
-        <f>SUM(B28,F27)</f>
-        <v>60737.5</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8">
-        <f>SUM(D28,H27)</f>
-        <v>63437.5</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="7">
-        <f>SUM(F28,J27)</f>
-        <v>86556.25</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8">
-        <f>SUM(H28,L27)</f>
-        <v>89256.25</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="7">
-        <f>SUM(J28,N27)</f>
-        <v>129575</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="8">
-        <f>SUM(L28,P27)</f>
-        <v>117775</v>
-      </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="7">
-        <f>SUM(N28,R27)</f>
-        <v>158093.75</v>
-      </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="8">
-        <f>SUM(P28,T27)</f>
-        <v>163493.75</v>
-      </c>
-      <c r="U28" s="8"/>
-      <c r="V28" s="7">
-        <f>SUM(R28,V27)</f>
-        <v>189312.5</v>
-      </c>
-      <c r="W28" s="7"/>
-      <c r="X28" s="8">
-        <f>SUM(T28,X27)</f>
-        <v>194712.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" hidden="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" hidden="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-    </row>
-    <row r="31" spans="1:25" hidden="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" hidden="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="B32" s="7">
+        <f>SUM(B31)</f>
+        <v>122565.625</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8">
+        <f>SUM(D31)</f>
+        <v>108065.625</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7">
+        <f>SUM(B32,F31)</f>
+        <v>230631.25</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8">
+        <f>SUM(D32,H31)</f>
+        <v>233331.25</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="7">
+        <f>SUM(F32,J31)</f>
+        <v>341396.875</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8">
+        <f>SUM(H32,L31)</f>
+        <v>344096.875</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="7">
+        <f>SUM(J32,N31)</f>
+        <v>469362.5</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="8">
+        <f>SUM(L32,P31)</f>
+        <v>457562.5</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="7">
+        <f>SUM(N32,R31)</f>
+        <v>583981.25</v>
+      </c>
+      <c r="S32" s="7"/>
+      <c r="T32" s="8">
+        <f>SUM(P32,T31)</f>
+        <v>588228.125</v>
+      </c>
+      <c r="U32" s="8"/>
+      <c r="V32" s="7">
+        <f>SUM(R32,V31)</f>
+        <v>700146.875</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="8">
+        <f>SUM(T32,X31)</f>
+        <v>704393.75</v>
+      </c>
     </row>
     <row r="33" spans="1:25" hidden="1">
       <c r="A33" s="2"/>
@@ -25416,7 +25779,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -25442,18 +25805,16 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="21">
-      <c r="A36" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="56"/>
+    <row r="36" spans="1:25" hidden="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -25470,7 +25831,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -25496,473 +25857,644 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:25" hidden="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" ht="21">
+      <c r="A40" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B42" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="63" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="62" t="s">
+      <c r="E42" s="64"/>
+      <c r="F42" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="63" t="s">
+      <c r="G42" s="64"/>
+      <c r="H42" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="62" t="s">
+      <c r="I42" s="64"/>
+      <c r="J42" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="63" t="s">
+      <c r="K42" s="64"/>
+      <c r="L42" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="M38" s="64"/>
-      <c r="N38" s="62" t="s">
+      <c r="M42" s="64"/>
+      <c r="N42" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="63" t="s">
+      <c r="O42" s="64"/>
+      <c r="P42" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="62" t="s">
+      <c r="Q42" s="64"/>
+      <c r="R42" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="63" t="s">
+      <c r="S42" s="64"/>
+      <c r="T42" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="U38" s="64"/>
-      <c r="V38" s="62" t="s">
+      <c r="U42" s="64"/>
+      <c r="V42" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="W38" s="64"/>
-      <c r="X38" s="63" t="s">
+      <c r="W42" s="64"/>
+      <c r="X42" s="63" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1">
-      <c r="A39" s="13" t="s">
+    <row r="43" spans="1:25" ht="15.75" thickTop="1">
+      <c r="A43" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B43" s="10">
         <f>(('PROYECCION DE VENTAS'!C79+'PROYECCION DE VENTAS'!C81+'PROYECCION DE VENTAS'!C83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!C80+'PROYECCION DE VENTAS'!C82+'PROYECCION DE VENTAS'!C84)*$D$5)</f>
         <v>41500</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10">
+      <c r="C43" s="9"/>
+      <c r="D43" s="10">
         <f>(('PROYECCION DE VENTAS'!E79+'PROYECCION DE VENTAS'!E81+'PROYECCION DE VENTAS'!E83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!E80+'PROYECCION DE VENTAS'!E82+'PROYECCION DE VENTAS'!E84)*$D$5)</f>
         <v>27000</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
         <f>(('PROYECCION DE VENTAS'!G79+'PROYECCION DE VENTAS'!G81+'PROYECCION DE VENTAS'!G83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!G80+'PROYECCION DE VENTAS'!G82+'PROYECCION DE VENTAS'!G84)*$D$5)</f>
         <v>27000</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10">
+      <c r="G43" s="9"/>
+      <c r="H43" s="10">
         <f>(('PROYECCION DE VENTAS'!I79+'PROYECCION DE VENTAS'!I81+'PROYECCION DE VENTAS'!I83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!I80+'PROYECCION DE VENTAS'!I82+'PROYECCION DE VENTAS'!I84)*$D$5)</f>
         <v>44200</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10">
         <f>(('PROYECCION DE VENTAS'!K79+'PROYECCION DE VENTAS'!K81+'PROYECCION DE VENTAS'!K83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!K80+'PROYECCION DE VENTAS'!K82+'PROYECCION DE VENTAS'!K84)*$D$5)</f>
         <v>29700</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10">
         <f>(('PROYECCION DE VENTAS'!M79+'PROYECCION DE VENTAS'!M81+'PROYECCION DE VENTAS'!M83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!M80+'PROYECCION DE VENTAS'!M82+'PROYECCION DE VENTAS'!M84)*$D$5)</f>
         <v>29700</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10">
+      <c r="M43" s="10"/>
+      <c r="N43" s="10">
         <f>(('PROYECCION DE VENTAS'!O79+'PROYECCION DE VENTAS'!O81+'PROYECCION DE VENTAS'!O83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!O80+'PROYECCION DE VENTAS'!O82+'PROYECCION DE VENTAS'!O84)*$D$5)</f>
         <v>46900</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10">
+      <c r="O43" s="9"/>
+      <c r="P43" s="10">
         <f>(('PROYECCION DE VENTAS'!Q79+'PROYECCION DE VENTAS'!Q81+'PROYECCION DE VENTAS'!Q83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!Q80+'PROYECCION DE VENTAS'!Q82+'PROYECCION DE VENTAS'!Q84)*$D$5)</f>
         <v>32400</v>
       </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10">
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10">
         <f>(('PROYECCION DE VENTAS'!S79+'PROYECCION DE VENTAS'!S81+'PROYECCION DE VENTAS'!S83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!S80+'PROYECCION DE VENTAS'!S82+'PROYECCION DE VENTAS'!S84)*$D$5)</f>
         <v>32400</v>
       </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="10">
+      <c r="S43" s="9"/>
+      <c r="T43" s="10">
         <f>(('PROYECCION DE VENTAS'!U79+'PROYECCION DE VENTAS'!U81+'PROYECCION DE VENTAS'!U83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!U80+'PROYECCION DE VENTAS'!U82+'PROYECCION DE VENTAS'!U84)*$D$5)</f>
         <v>49600</v>
       </c>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10">
+      <c r="U43" s="10"/>
+      <c r="V43" s="10">
         <f>(('PROYECCION DE VENTAS'!W79+'PROYECCION DE VENTAS'!W81+'PROYECCION DE VENTAS'!W83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!W80+'PROYECCION DE VENTAS'!W82+'PROYECCION DE VENTAS'!W84)*$D$5)</f>
         <v>35100</v>
       </c>
-      <c r="W39" s="9"/>
-      <c r="X39" s="10">
+      <c r="W43" s="9"/>
+      <c r="X43" s="10">
         <f>(('PROYECCION DE VENTAS'!Y79+'PROYECCION DE VENTAS'!Y81+'PROYECCION DE VENTAS'!Y83)*'COSTOS VARIABLES'!$D$4)+(('PROYECCION DE VENTAS'!Y80+'PROYECCION DE VENTAS'!Y82+'PROYECCION DE VENTAS'!Y84)*$D$5)</f>
         <v>35100</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="78" t="s">
+    <row r="44" spans="1:25">
+      <c r="A44" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="79">
+      <c r="B44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="K40" s="80"/>
-      <c r="L40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="K44" s="80"/>
+      <c r="L44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="O40" s="80"/>
-      <c r="P40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="O44" s="80"/>
+      <c r="P44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="S40" s="80"/>
-      <c r="T40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="S44" s="80"/>
+      <c r="T44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="U44" s="79"/>
+      <c r="V44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-      <c r="W40" s="80"/>
-      <c r="X40" s="79">
+        <v>6918.75</v>
+      </c>
+      <c r="W44" s="80"/>
+      <c r="X44" s="79">
         <f>30*'COSTOS RRHH'!$C$85/30/8*1.5*'COSTOS RRHH'!$K$10*1.2</f>
-        <v>8302.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="6" t="s">
+        <v>6918.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="C45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="D45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="E45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="F45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="G45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="H45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="I45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="J45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="K45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="L45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="M45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="N45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="O45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="P45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="Q45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="R45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="S45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="T45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="U45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="V45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="W45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+      <c r="X45" s="79">
+        <f>'COSTOS RRHH'!$C$25/12</f>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="E46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="F46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="G46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="H46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="I46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="J46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="K46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="L46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="M46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="N46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="O46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="P46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="Q46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="R46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="S46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="T46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="U46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="V46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="W46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+      <c r="X46" s="79">
+        <f>'COSTOS RRHH'!$E$26/12</f>
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="8">
-        <f>SUM(B39:B40)</f>
-        <v>49802.5</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8">
-        <f>SUM(D39:D40)</f>
-        <v>35302.5</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8">
-        <f>SUM(F39:F40)</f>
-        <v>35302.5</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8">
-        <f>SUM(H39:H40)</f>
-        <v>52502.5</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8">
-        <f>SUM(J39:J40)</f>
-        <v>38002.5</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8">
-        <f>SUM(L39:L40)</f>
-        <v>38002.5</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8">
-        <f>SUM(N39:N40)</f>
-        <v>55202.5</v>
-      </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="8">
-        <f>SUM(P39:P40)</f>
-        <v>40702.5</v>
-      </c>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8">
-        <f>SUM(R39:R40)</f>
-        <v>40702.5</v>
-      </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="8">
-        <f>SUM(T39:T40)</f>
-        <v>57902.5</v>
-      </c>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8">
-        <f>SUM(V39:V40)</f>
-        <v>43402.5</v>
-      </c>
-      <c r="W41" s="7"/>
-      <c r="X41" s="8">
-        <f>SUM(X39:X40)</f>
-        <v>43402.5</v>
-      </c>
-      <c r="Y41" s="8">
-        <f>SUM(B41:X41)</f>
-        <v>530230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" hidden="1">
-      <c r="A42" s="6" t="s">
+      <c r="B47" s="8">
+        <f>SUM(B43:B46)</f>
+        <v>134518.75</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8">
+        <f t="shared" ref="D47" si="22">SUM(D43:D46)</f>
+        <v>120018.75</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" ref="E47" si="23">SUM(E43:E46)</f>
+        <v>86100</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" ref="F47" si="24">SUM(F43:F46)</f>
+        <v>120018.75</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" ref="G47" si="25">SUM(G43:G46)</f>
+        <v>86100</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" ref="H47" si="26">SUM(H43:H46)</f>
+        <v>137218.75</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" ref="I47" si="27">SUM(I43:I46)</f>
+        <v>86100</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" ref="J47" si="28">SUM(J43:J46)</f>
+        <v>122718.75</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" ref="K47" si="29">SUM(K43:K46)</f>
+        <v>86100</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" ref="L47" si="30">SUM(L43:L46)</f>
+        <v>122718.75</v>
+      </c>
+      <c r="M47" s="8">
+        <f t="shared" ref="M47" si="31">SUM(M43:M46)</f>
+        <v>86100</v>
+      </c>
+      <c r="N47" s="8">
+        <f t="shared" ref="N47" si="32">SUM(N43:N46)</f>
+        <v>139918.75</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" ref="O47" si="33">SUM(O43:O46)</f>
+        <v>86100</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" ref="P47" si="34">SUM(P43:P46)</f>
+        <v>125418.75</v>
+      </c>
+      <c r="Q47" s="8">
+        <f t="shared" ref="Q47" si="35">SUM(Q43:Q46)</f>
+        <v>86100</v>
+      </c>
+      <c r="R47" s="8">
+        <f t="shared" ref="R47" si="36">SUM(R43:R46)</f>
+        <v>125418.75</v>
+      </c>
+      <c r="S47" s="8">
+        <f t="shared" ref="S47" si="37">SUM(S43:S46)</f>
+        <v>86100</v>
+      </c>
+      <c r="T47" s="8">
+        <f t="shared" ref="T47" si="38">SUM(T43:T46)</f>
+        <v>142618.75</v>
+      </c>
+      <c r="U47" s="8">
+        <f t="shared" ref="U47" si="39">SUM(U43:U46)</f>
+        <v>86100</v>
+      </c>
+      <c r="V47" s="8">
+        <f t="shared" ref="V47" si="40">SUM(V43:V46)</f>
+        <v>128118.75</v>
+      </c>
+      <c r="W47" s="8">
+        <f t="shared" ref="W47" si="41">SUM(W43:W46)</f>
+        <v>86100</v>
+      </c>
+      <c r="X47" s="8">
+        <f t="shared" ref="X47" si="42">SUM(X43:X46)</f>
+        <v>128118.75</v>
+      </c>
+      <c r="Y47" s="8">
+        <f>SUM(B47:X47)</f>
+        <v>2407825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" hidden="1">
+      <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="7">
-        <f>SUM(B41)</f>
-        <v>49802.5</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8">
-        <f>SUM(D41)</f>
-        <v>35302.5</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7">
-        <f>SUM(B42,F41)</f>
-        <v>85105</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8">
-        <f>SUM(D42,H41)</f>
-        <v>87805</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="7">
-        <f>SUM(F42,J41)</f>
-        <v>123107.5</v>
-      </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8">
-        <f>SUM(H42,L41)</f>
-        <v>125807.5</v>
-      </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7">
-        <f>SUM(J42,N41)</f>
-        <v>178310</v>
-      </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8">
-        <f>SUM(L42,P41)</f>
-        <v>166510</v>
-      </c>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="7">
-        <f>SUM(N42,R41)</f>
-        <v>219012.5</v>
-      </c>
-      <c r="S42" s="7"/>
-      <c r="T42" s="8">
-        <f>SUM(P42,T41)</f>
-        <v>224412.5</v>
-      </c>
-      <c r="U42" s="8"/>
-      <c r="V42" s="7">
-        <f>SUM(R42,V41)</f>
-        <v>262415</v>
-      </c>
-      <c r="W42" s="7"/>
-      <c r="X42" s="8">
-        <f>SUM(T42,X41)</f>
-        <v>267815</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-    </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-    </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-    </row>
-    <row r="46" spans="1:25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-    </row>
-    <row r="47" spans="1:25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-    </row>
-    <row r="48" spans="1:25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
+      <c r="B48" s="7">
+        <f>SUM(B47)</f>
+        <v>134518.75</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
+        <f>SUM(D47)</f>
+        <v>120018.75</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7">
+        <f>SUM(B48,F47)</f>
+        <v>254537.5</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8">
+        <f>SUM(D48,H47)</f>
+        <v>257237.5</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="7">
+        <f>SUM(F48,J47)</f>
+        <v>377256.25</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="8">
+        <f>SUM(H48,L47)</f>
+        <v>379956.25</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="7">
+        <f>SUM(J48,N47)</f>
+        <v>517175</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="8">
+        <f>SUM(L48,P47)</f>
+        <v>505375</v>
+      </c>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="7">
+        <f>SUM(N48,R47)</f>
+        <v>642593.75</v>
+      </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="8">
+        <f>SUM(P48,T47)</f>
+        <v>647993.75</v>
+      </c>
+      <c r="U48" s="8"/>
+      <c r="V48" s="7">
+        <f>SUM(R48,V47)</f>
+        <v>770712.5</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="8">
+        <f>SUM(T48,X47)</f>
+        <v>776112.5</v>
+      </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="2"/>
@@ -28122,15 +28654,171 @@
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
     </row>
+    <row r="132" spans="1:24">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+    </row>
+    <row r="133" spans="1:24">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+    </row>
+    <row r="134" spans="1:24">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+    </row>
+    <row r="135" spans="1:24">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
+      <c r="X135" s="2"/>
+    </row>
+    <row r="136" spans="1:24">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+    </row>
+    <row r="137" spans="1:24">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.9055118110236221" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -28147,8 +28835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -28157,34 +28845,34 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="21.75" thickBot="1">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="133"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1"/>
     <row r="6" spans="1:11" ht="15.75">
@@ -28210,7 +28898,7 @@
         <v>209</v>
       </c>
       <c r="K10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -28222,10 +28910,10 @@
       <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="117"/>
+      <c r="K12" s="134"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -28371,14 +29059,14 @@
       </c>
       <c r="E23" s="10">
         <f>D23*$B$47*$K$10</f>
-        <v>619920</v>
+        <v>516600</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="G23" s="10">
         <f>F23*$B$47*$K$10*$K$10</f>
-        <v>743904</v>
+        <v>516600</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
@@ -28439,14 +29127,14 @@
       </c>
       <c r="E25" s="10">
         <f>D25*$B$73*$K$10</f>
-        <v>354240</v>
+        <v>295200</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
       </c>
       <c r="G25" s="10">
         <f>F25*$B$73*$K$10*$K$10</f>
-        <v>425088</v>
+        <v>295200</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -28473,14 +29161,14 @@
       </c>
       <c r="E26" s="12">
         <f>D26*$B$86*$K$10</f>
-        <v>885600</v>
+        <v>738000</v>
       </c>
       <c r="F26" s="11">
         <v>2</v>
       </c>
       <c r="G26" s="12">
         <f>F26*$B$86*$K$10*$K$10</f>
-        <v>1062720</v>
+        <v>738000</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -28507,14 +29195,14 @@
       </c>
       <c r="E27" s="10">
         <f>D27*$B$99*$K$10</f>
-        <v>265680</v>
+        <v>221400</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
       </c>
       <c r="G27" s="10">
         <f>F27*$B$99*$K$10*$K$10</f>
-        <v>318816</v>
+        <v>221400</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
@@ -28573,14 +29261,14 @@
       </c>
       <c r="E29" s="10">
         <f>D29*$B$113*$K$10</f>
-        <v>354240</v>
+        <v>295200</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
       </c>
       <c r="G29" s="10">
         <f>F29*$B$113*$K$10*$K$10</f>
-        <v>425088</v>
+        <v>295200</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -28606,14 +29294,14 @@
       </c>
       <c r="E30" s="12">
         <f>D30*$B$126*$K$10</f>
-        <v>354240</v>
+        <v>295200</v>
       </c>
       <c r="F30" s="11">
         <v>2</v>
       </c>
       <c r="G30" s="12">
         <f>F30*$B$126*$K$10*$K$10</f>
-        <v>425088</v>
+        <v>295200</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -28629,18 +29317,18 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8">
-        <f>SUBTOTAL(109,C23:C30)</f>
-        <v>1845000</v>
+        <f>C23+C24+C27+C28+C30+C29</f>
+        <v>1180800</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8">
-        <f>SUBTOTAL(109,E23:E30)</f>
-        <v>2833920</v>
+        <f>E23+E24+E27+E28+E30+E29</f>
+        <v>1328400</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8">
-        <f>SUBTOTAL(109,G23:G30)</f>
-        <v>3400704</v>
+        <f>G23+G24+G27+G28+G30+G29</f>
+        <v>1328400</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -29224,10 +29912,10 @@
       <c r="N49" s="29"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="117"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -32014,380 +32702,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B2" s="126" t="s">
+    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B2" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="127">
+      <c r="C2" s="103">
         <v>30000</v>
       </c>
       <c r="D2" s="14" t="str">
         <f>B2</f>
         <v>SUELDO</v>
       </c>
-      <c r="E2" s="130">
+      <c r="E2" s="106">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(C2,".",""),",","."))</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B3" s="119" t="s">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B3" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="96" t="s">
         <v>241</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D11" si="0">B3</f>
         <v>ANTIGÜEDAD FINAL</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B4" s="126" t="s">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B4" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="104" t="s">
         <v>243</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ANTIGÜEDAD ART 245</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="106">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(C4,".",""),",","."))</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B5" s="119" t="s">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B5" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="96" t="s">
         <v>245</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>SAC SOBRE ANTIGÜEDAD</v>
       </c>
-      <c r="E5" s="131">
+      <c r="E5" s="107">
         <f t="shared" ref="E5:E9" si="1">VALUE(SUBSTITUTE(SUBSTITUTE(C5,".",""),",","."))</f>
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B6" s="118" t="s">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B6" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="100" t="s">
         <v>247</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>DIAS TRABAJADOS DEL MES</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="106">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B7" s="119" t="s">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B7" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="96" t="s">
         <v>249</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>SAC PROPORCIONAL</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="107">
         <f t="shared" si="1"/>
         <v>15123.29</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B8" s="118" t="s">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B8" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="100" t="s">
         <v>251</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="106">
         <f t="shared" si="1"/>
         <v>16753.97</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B9" s="119" t="s">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B9" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="96" t="s">
         <v>253</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>SAC VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="107">
         <f t="shared" si="1"/>
         <v>1396.16</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-    </row>
-    <row r="11" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B11" s="123" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+    </row>
+    <row r="11" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B11" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="101" t="s">
         <v>254</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>TOTAL</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="109">
         <f>SUM(E4:E9)</f>
         <v>160773.42000000001</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="129" t="s">
+      <c r="E14" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B15" s="126" t="s">
+    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B15" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="103">
         <v>20000</v>
       </c>
       <c r="D15" s="14" t="str">
         <f>B15</f>
         <v>SUELDO</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="106">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(C15,".",""),",","."))</f>
         <v>20000</v>
       </c>
       <c r="G15" s="14" t="str">
-        <f>B28</f>
+        <f t="shared" ref="G15:G22" si="2">B28</f>
         <v>SUELDO</v>
       </c>
-      <c r="H15" s="130">
+      <c r="H15" s="106">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(C28,".",""),",","."))</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B16" s="119" t="s">
+    <row r="16" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B16" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="96" t="s">
         <v>241</v>
       </c>
       <c r="D16" s="14" t="str">
-        <f t="shared" ref="D16:D24" si="2">B16</f>
+        <f t="shared" ref="D16:D22" si="3">B16</f>
         <v>ANTIGÜEDAD FINAL</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="108" t="s">
         <v>241</v>
       </c>
       <c r="G16" s="14" t="str">
-        <f>B29</f>
+        <f t="shared" si="2"/>
         <v>ANTIGÜEDAD FINAL</v>
       </c>
-      <c r="H16" s="132" t="s">
+      <c r="H16" s="108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B17" s="126" t="s">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B17" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="104" t="s">
         <v>256</v>
       </c>
       <c r="D17" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>ANTIGÜEDAD ART 245</v>
+      </c>
+      <c r="E17" s="106">
+        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C17,".",""),",","."))</f>
+        <v>60000</v>
+      </c>
+      <c r="G17" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ANTIGÜEDAD ART 245</v>
       </c>
-      <c r="E17" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C17,".",""),",","."))</f>
-        <v>60000</v>
-      </c>
-      <c r="G17" s="14" t="str">
-        <f>B30</f>
-        <v>ANTIGÜEDAD ART 245</v>
-      </c>
-      <c r="H17" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C30,".",""),",","."))</f>
+      <c r="H17" s="106">
+        <f t="shared" ref="H17:H22" si="4">VALUE(SUBSTITUTE(SUBSTITUTE(C30,".",""),",","."))</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B18" s="119" t="s">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B18" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="96" t="s">
         <v>257</v>
       </c>
       <c r="D18" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>SAC SOBRE ANTIGÜEDAD</v>
+      </c>
+      <c r="E18" s="107">
+        <f t="shared" ref="E18:E22" si="5">VALUE(SUBSTITUTE(SUBSTITUTE(C18,".",""),",","."))</f>
+        <v>5000</v>
+      </c>
+      <c r="G18" s="14" t="str">
         <f t="shared" si="2"/>
         <v>SAC SOBRE ANTIGÜEDAD</v>
       </c>
-      <c r="E18" s="131">
-        <f t="shared" ref="E18:E22" si="3">VALUE(SUBSTITUTE(SUBSTITUTE(C18,".",""),",","."))</f>
-        <v>5000</v>
-      </c>
-      <c r="G18" s="14" t="str">
-        <f>B31</f>
-        <v>SAC SOBRE ANTIGÜEDAD</v>
-      </c>
-      <c r="H18" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C31,".",""),",","."))</f>
+      <c r="H18" s="107">
+        <f t="shared" si="4"/>
         <v>6250</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B19" s="118" t="s">
+    <row r="19" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B19" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="100" t="s">
         <v>258</v>
       </c>
       <c r="D19" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>DIAS TRABAJADOS DEL MES</v>
+      </c>
+      <c r="E19" s="106">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="G19" s="14" t="str">
         <f t="shared" si="2"/>
         <v>DIAS TRABAJADOS DEL MES</v>
       </c>
-      <c r="E19" s="130">
+      <c r="H19" s="106">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B20" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="G19" s="14" t="str">
-        <f>B32</f>
-        <v>DIAS TRABAJADOS DEL MES</v>
-      </c>
-      <c r="H19" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C32,".",""),",","."))</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B20" s="119" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="14" t="str">
+        <v>SAC PROPORCIONAL</v>
+      </c>
+      <c r="E20" s="107">
+        <f t="shared" si="5"/>
+        <v>10082.19</v>
+      </c>
+      <c r="G20" s="14" t="str">
         <f t="shared" si="2"/>
         <v>SAC PROPORCIONAL</v>
       </c>
-      <c r="E20" s="131">
+      <c r="H20" s="107">
+        <f t="shared" si="4"/>
+        <v>12602.74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B21" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>10082.19</v>
-      </c>
-      <c r="G20" s="14" t="str">
-        <f>B33</f>
-        <v>SAC PROPORCIONAL</v>
-      </c>
-      <c r="H20" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C33,".",""),",","."))</f>
-        <v>12602.74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B21" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="124" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="14" t="str">
+        <v>VACACIONES NO GOZADAS</v>
+      </c>
+      <c r="E21" s="106">
+        <f t="shared" si="5"/>
+        <v>11169.32</v>
+      </c>
+      <c r="G21" s="14" t="str">
         <f t="shared" si="2"/>
         <v>VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E21" s="130">
+      <c r="H21" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B22" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>11169.32</v>
-      </c>
-      <c r="G21" s="14" t="str">
-        <f>B34</f>
-        <v>VACACIONES NO GOZADAS</v>
-      </c>
-      <c r="H21" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C34,".",""),",","."))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B22" s="119" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22" s="14" t="str">
+        <v>SAC VACACIONES NO GOZADAS</v>
+      </c>
+      <c r="E22" s="107">
+        <f t="shared" si="5"/>
+        <v>930.78</v>
+      </c>
+      <c r="G22" s="14" t="str">
         <f t="shared" si="2"/>
         <v>SAC VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E22" s="131">
-        <f t="shared" si="3"/>
-        <v>930.78</v>
-      </c>
-      <c r="G22" s="14" t="str">
-        <f>B35</f>
-        <v>SAC VACACIONES NO GOZADAS</v>
-      </c>
-      <c r="H22" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C35,".",""),",","."))</f>
+      <c r="H22" s="107">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B23" s="121"/>
-      <c r="C23" s="122"/>
-    </row>
-    <row r="24" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B24" s="123" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+    </row>
+    <row r="24" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B24" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="101" t="s">
         <v>262</v>
       </c>
       <c r="D24" s="14" t="str">
-        <f t="shared" ref="D24" si="4">B24</f>
+        <f t="shared" ref="D24" si="6">B24</f>
         <v>TOTAL</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="109">
         <f>SUM(E17:E22)</f>
         <v>107182.29000000001</v>
       </c>
@@ -32395,386 +33083,386 @@
         <f>B37</f>
         <v>TOTAL</v>
       </c>
-      <c r="H24" s="133">
+      <c r="H24" s="109">
         <f>SUM(H17:H22)</f>
         <v>118852.74</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="129" t="s">
+      <c r="E27" s="105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B28" s="126" t="s">
+    <row r="28" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B28" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="127">
+      <c r="C28" s="103">
         <v>25000</v>
       </c>
       <c r="D28" s="14" t="str">
-        <f>B41</f>
+        <f t="shared" ref="D28:D35" si="7">B41</f>
         <v>SUELDO</v>
       </c>
-      <c r="E28" s="130">
+      <c r="E28" s="106">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(C41,".",""),",","."))</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B29" s="119" t="s">
+    <row r="29" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B29" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="120" t="s">
+      <c r="C29" s="96" t="s">
         <v>241</v>
       </c>
       <c r="D29" s="14" t="str">
-        <f>B42</f>
+        <f t="shared" si="7"/>
         <v>ANTIGÜEDAD FINAL</v>
       </c>
-      <c r="E29" s="132" t="s">
+      <c r="E29" s="108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B30" s="126" t="s">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B30" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="104" t="s">
         <v>263</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f>B43</f>
+        <f t="shared" si="7"/>
         <v>ANTIGÜEDAD ART 245</v>
       </c>
-      <c r="E30" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C43,".",""),",","."))</f>
+      <c r="E30" s="106">
+        <f t="shared" ref="E30:E35" si="8">VALUE(SUBSTITUTE(SUBSTITUTE(C43,".",""),",","."))</f>
         <v>45000</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B31" s="119" t="s">
+    <row r="31" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B31" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="96" t="s">
         <v>264</v>
       </c>
       <c r="D31" s="14" t="str">
-        <f>B44</f>
+        <f t="shared" si="7"/>
         <v>SAC SOBRE ANTIGÜEDAD</v>
       </c>
-      <c r="E31" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C44,".",""),",","."))</f>
+      <c r="E31" s="107">
+        <f t="shared" si="8"/>
         <v>3750</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B32" s="118" t="s">
+    <row r="32" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B32" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="100" t="s">
         <v>265</v>
       </c>
       <c r="D32" s="14" t="str">
-        <f>B45</f>
+        <f t="shared" si="7"/>
         <v>DIAS TRABAJADOS DEL MES</v>
       </c>
-      <c r="E32" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C45,".",""),",","."))</f>
+      <c r="E32" s="106">
+        <f t="shared" si="8"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B33" s="119" t="s">
+    <row r="33" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B33" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="96" t="s">
         <v>266</v>
       </c>
       <c r="D33" s="14" t="str">
-        <f>B46</f>
+        <f t="shared" si="7"/>
         <v>SAC PROPORCIONAL</v>
       </c>
-      <c r="E33" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C46,".",""),",","."))</f>
+      <c r="E33" s="107">
+        <f t="shared" si="8"/>
         <v>7561.64</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B34" s="118" t="s">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B34" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="100">
         <v>0</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f>B47</f>
+        <f t="shared" si="7"/>
         <v>VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E34" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C47,".",""),",","."))</f>
+      <c r="E34" s="106">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B35" s="119" t="s">
+    <row r="35" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B35" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="120">
+      <c r="C35" s="96">
         <v>0</v>
       </c>
       <c r="D35" s="14" t="str">
-        <f>B48</f>
+        <f t="shared" si="7"/>
         <v>SAC VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E35" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C48,".",""),",","."))</f>
+      <c r="E35" s="107">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B36" s="121"/>
-      <c r="C36" s="122"/>
-    </row>
-    <row r="37" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B37" s="123" t="s">
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
+    </row>
+    <row r="37" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B37" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="101" t="s">
         <v>254</v>
       </c>
       <c r="D37" s="14" t="str">
         <f>B50</f>
         <v>TOTAL</v>
       </c>
-      <c r="E37" s="133">
+      <c r="E37" s="109">
         <f>SUM(E30:E35)</f>
         <v>71311.64</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D40" s="129" t="s">
+      <c r="D40" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="129" t="s">
+      <c r="E40" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="129" t="s">
+      <c r="G40" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="H40" s="129" t="s">
+      <c r="H40" s="105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B41" s="126" t="s">
+    <row r="41" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B41" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="127">
+      <c r="C41" s="103">
         <v>15000</v>
       </c>
       <c r="D41" s="14" t="str">
-        <f>B54</f>
+        <f t="shared" ref="D41:D48" si="9">B54</f>
         <v>SUELDO</v>
       </c>
-      <c r="E41" s="130">
+      <c r="E41" s="106">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(C54,".",""),",","."))</f>
         <v>20000</v>
       </c>
       <c r="G41" s="14" t="str">
-        <f>B67</f>
+        <f t="shared" ref="G41:G48" si="10">B67</f>
         <v>SUELDO</v>
       </c>
-      <c r="H41" s="130">
+      <c r="H41" s="106">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(C67,".",""),",","."))</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B42" s="119" t="s">
+    <row r="42" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B42" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="96" t="s">
         <v>241</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f>B55</f>
+        <f t="shared" si="9"/>
         <v>ANTIGÜEDAD FINAL</v>
       </c>
-      <c r="E42" s="132" t="s">
+      <c r="E42" s="108" t="s">
         <v>241</v>
       </c>
       <c r="G42" s="14" t="str">
-        <f>B68</f>
+        <f t="shared" si="10"/>
         <v>ANTIGÜEDAD FINAL</v>
       </c>
-      <c r="H42" s="132" t="s">
+      <c r="H42" s="108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B43" s="126" t="s">
+    <row r="43" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B43" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="104" t="s">
         <v>269</v>
       </c>
       <c r="D43" s="14" t="str">
-        <f>B56</f>
+        <f t="shared" si="9"/>
         <v>ANTIGÜEDAD ART 245</v>
       </c>
-      <c r="E43" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C56,".",""),",","."))</f>
+      <c r="E43" s="106">
+        <f t="shared" ref="E43:E48" si="11">VALUE(SUBSTITUTE(SUBSTITUTE(C56,".",""),",","."))</f>
         <v>60000</v>
       </c>
       <c r="G43" s="14" t="str">
-        <f>B69</f>
+        <f t="shared" si="10"/>
         <v>ANTIGÜEDAD ART 245</v>
       </c>
-      <c r="H43" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C69,".",""),",","."))</f>
+      <c r="H43" s="106">
+        <f t="shared" ref="H43:H48" si="12">VALUE(SUBSTITUTE(SUBSTITUTE(C69,".",""),",","."))</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B44" s="119" t="s">
+    <row r="44" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B44" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="96" t="s">
         <v>270</v>
       </c>
       <c r="D44" s="14" t="str">
-        <f>B57</f>
+        <f t="shared" si="9"/>
         <v>SAC SOBRE ANTIGÜEDAD</v>
       </c>
-      <c r="E44" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C57,".",""),",","."))</f>
+      <c r="E44" s="107">
+        <f t="shared" si="11"/>
         <v>5000</v>
       </c>
       <c r="G44" s="14" t="str">
-        <f>B70</f>
+        <f t="shared" si="10"/>
         <v>SAC SOBRE ANTIGÜEDAD</v>
       </c>
-      <c r="H44" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C70,".",""),",","."))</f>
+      <c r="H44" s="107">
+        <f t="shared" si="12"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B45" s="118" t="s">
+    <row r="45" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B45" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="124" t="s">
+      <c r="C45" s="100" t="s">
         <v>267</v>
       </c>
       <c r="D45" s="14" t="str">
-        <f>B58</f>
+        <f t="shared" si="9"/>
         <v>DIAS TRABAJADOS DEL MES</v>
       </c>
-      <c r="E45" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C58,".",""),",","."))</f>
+      <c r="E45" s="106">
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
       <c r="G45" s="14" t="str">
-        <f>B71</f>
+        <f t="shared" si="10"/>
         <v>DIAS TRABAJADOS DEL MES</v>
       </c>
-      <c r="H45" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C71,".",""),",","."))</f>
+      <c r="H45" s="106">
+        <f t="shared" si="12"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B46" s="119" t="s">
+    <row r="46" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B46" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="96" t="s">
         <v>268</v>
       </c>
       <c r="D46" s="14" t="str">
-        <f>B59</f>
+        <f t="shared" si="9"/>
         <v>SAC PROPORCIONAL</v>
       </c>
-      <c r="E46" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C59,".",""),",","."))</f>
+      <c r="E46" s="107">
+        <f t="shared" si="11"/>
         <v>10082.19</v>
       </c>
       <c r="G46" s="14" t="str">
-        <f>B72</f>
+        <f t="shared" si="10"/>
         <v>SAC PROPORCIONAL</v>
       </c>
-      <c r="H46" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C72,".",""),",","."))</f>
+      <c r="H46" s="107">
+        <f t="shared" si="12"/>
         <v>5041.1000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B47" s="118" t="s">
+    <row r="47" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B47" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="124">
+      <c r="C47" s="100">
         <v>0</v>
       </c>
       <c r="D47" s="14" t="str">
-        <f>B60</f>
+        <f t="shared" si="9"/>
         <v>VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E47" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C60,".",""),",","."))</f>
+      <c r="E47" s="106">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G47" s="14" t="str">
-        <f>B73</f>
+        <f t="shared" si="10"/>
         <v>VACACIONES NO GOZADAS</v>
       </c>
-      <c r="H47" s="130">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C73,".",""),",","."))</f>
+      <c r="H47" s="106">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B48" s="119" t="s">
+    <row r="48" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B48" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="120">
+      <c r="C48" s="96">
         <v>0</v>
       </c>
       <c r="D48" s="14" t="str">
-        <f>B61</f>
+        <f t="shared" si="9"/>
         <v>SAC VACACIONES NO GOZADAS</v>
       </c>
-      <c r="E48" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C61,".",""),",","."))</f>
+      <c r="E48" s="107">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G48" s="14" t="str">
-        <f>B74</f>
+        <f t="shared" si="10"/>
         <v>SAC VACACIONES NO GOZADAS</v>
       </c>
-      <c r="H48" s="131">
-        <f>VALUE(SUBSTITUTE(SUBSTITUTE(C74,".",""),",","."))</f>
+      <c r="H48" s="107">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B49" s="121"/>
-      <c r="C49" s="122"/>
-    </row>
-    <row r="50" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B50" s="123" t="s">
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
+    </row>
+    <row r="50" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B50" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="125" t="s">
+      <c r="C50" s="101" t="s">
         <v>254</v>
       </c>
       <c r="D50" s="14" t="str">
         <f>B63</f>
         <v>TOTAL</v>
       </c>
-      <c r="E50" s="133">
+      <c r="E50" s="109">
         <f>SUM(E43:E48)</f>
         <v>95082.19</v>
       </c>
@@ -32782,167 +33470,167 @@
         <f>B76</f>
         <v>TOTAL</v>
       </c>
-      <c r="H50" s="133">
+      <c r="H50" s="109">
         <f>SUM(H43:H48)</f>
         <v>47541.1</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="54" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B54" s="126" t="s">
+    <row r="54" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B54" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C54" s="127">
+      <c r="C54" s="103">
         <v>20000</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="133">
+      <c r="E54" s="109">
         <f>E11+E24+H24+E37+E50+H50</f>
         <v>600743.38</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B55" s="119" t="s">
+    <row r="55" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B55" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="96" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B56" s="126" t="s">
+    <row r="56" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B56" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="104" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B57" s="119" t="s">
+    <row r="57" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B57" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="C57" s="120" t="s">
+      <c r="C57" s="96" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B58" s="118" t="s">
+    <row r="58" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B58" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="124" t="s">
+      <c r="C58" s="100" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B59" s="119" t="s">
+    <row r="59" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B59" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="120" t="s">
+      <c r="C59" s="96" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B60" s="118" t="s">
+    <row r="60" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B60" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="124">
+      <c r="C60" s="100">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B61" s="119" t="s">
+    <row r="61" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B61" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="120">
+      <c r="C61" s="96">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B62" s="121"/>
-      <c r="C62" s="122"/>
-    </row>
-    <row r="63" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B63" s="123" t="s">
+      <c r="B62" s="97"/>
+      <c r="C62" s="98"/>
+    </row>
+    <row r="63" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B63" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="125"/>
+      <c r="C63" s="101"/>
     </row>
     <row r="66" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="67" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B67" s="126" t="s">
+    <row r="67" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B67" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="127">
+      <c r="C67" s="103">
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B68" s="119" t="s">
+    <row r="68" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B68" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="C68" s="120" t="s">
+      <c r="C68" s="96" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B69" s="126" t="s">
+    <row r="69" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B69" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C69" s="128" t="s">
+      <c r="C69" s="104" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B70" s="119" t="s">
+    <row r="70" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B70" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="120" t="s">
+      <c r="C70" s="96" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B71" s="118" t="s">
+    <row r="71" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B71" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="124" t="s">
+      <c r="C71" s="100" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B72" s="119" t="s">
+    <row r="72" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B72" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C72" s="120" t="s">
+      <c r="C72" s="96" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B73" s="118" t="s">
+    <row r="73" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B73" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="C73" s="124">
+      <c r="C73" s="100">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B74" s="119" t="s">
+    <row r="74" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B74" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="120">
+      <c r="C74" s="96">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B75" s="121"/>
-      <c r="C75" s="122"/>
-    </row>
-    <row r="76" spans="2:3" ht="20.25" thickBot="1">
-      <c r="B76" s="123" t="s">
+      <c r="B75" s="97"/>
+      <c r="C75" s="98"/>
+    </row>
+    <row r="76" spans="2:3" ht="19.5" thickBot="1">
+      <c r="B76" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="125" t="s">
+      <c r="C76" s="101" t="s">
         <v>254</v>
       </c>
     </row>
